--- a/IT Tipo (002).xlsx
+++ b/IT Tipo (002).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Operaciones\PycharmProjects\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F28176D4-B673-4A41-A59E-803B03796B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE956A2B-8F39-4365-B864-0EDB64217823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3643E92C-1364-4256-AF61-7814676A17A1}"/>
   </bookViews>
@@ -7959,7 +7959,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -8474,21 +8474,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -8515,35 +8500,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -8576,68 +8535,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="double">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -8671,6 +8572,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -8679,7 +8591,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -8913,10 +8825,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -8971,10 +8879,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -8999,10 +8903,6 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -9015,13 +8915,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9042,15 +8939,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -9068,12 +8957,6 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -9081,7 +8964,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -9100,21 +8983,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -9168,9 +9036,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9244,16 +9109,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9265,10 +9127,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9294,8 +9156,20 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -9995,7 +9869,7 @@
   <dimension ref="A1:U67"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" zoomScale="72" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -10034,21 +9908,21 @@
     <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="M2" s="27"/>
-      <c r="O2" s="168" t="s">
+      <c r="O2" s="154" t="s">
         <v>1245</v>
       </c>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="169"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="155"/>
+      <c r="R2" s="155"/>
       <c r="S2" s="37"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="M3" s="27"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="169"/>
+      <c r="O3" s="154"/>
+      <c r="P3" s="155"/>
+      <c r="Q3" s="155"/>
+      <c r="R3" s="155"/>
       <c r="S3" s="7" t="s">
         <v>1074</v>
       </c>
@@ -10057,18 +9931,18 @@
     <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="M4" s="27"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="169"/>
-      <c r="R4" s="169"/>
-      <c r="S4" s="143"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="155"/>
+      <c r="R4" s="155"/>
+      <c r="S4" s="130"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="M5" s="27"/>
       <c r="O5" s="17"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="91"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="90"/>
       <c r="S5" s="37"/>
     </row>
     <row r="6" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10094,10 +9968,10 @@
       <c r="A7" s="8"/>
       <c r="M7" s="27"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="140"/>
-      <c r="Q7" s="141"/>
-      <c r="R7" s="140"/>
-      <c r="S7" s="142"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="128"/>
+      <c r="R7" s="127"/>
+      <c r="S7" s="129"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
@@ -10111,12 +9985,12 @@
       <c r="O9" s="20" t="s">
         <v>1084</v>
       </c>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="145"/>
+      <c r="P9" s="131"/>
+      <c r="Q9" s="132"/>
       <c r="R9" s="23" t="s">
         <v>1087</v>
       </c>
-      <c r="S9" s="128"/>
+      <c r="S9" s="120"/>
     </row>
     <row r="10" spans="1:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
@@ -10124,12 +9998,12 @@
       <c r="O10" s="22" t="s">
         <v>1085</v>
       </c>
-      <c r="P10" s="185"/>
-      <c r="Q10" s="186"/>
+      <c r="P10" s="170"/>
+      <c r="Q10" s="171"/>
       <c r="R10" s="24" t="s">
         <v>2531</v>
       </c>
-      <c r="S10" s="133"/>
+      <c r="S10" s="125"/>
     </row>
     <row r="11" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
@@ -10137,12 +10011,12 @@
       <c r="O11" s="22" t="s">
         <v>1086</v>
       </c>
-      <c r="P11" s="144"/>
-      <c r="Q11" s="145"/>
+      <c r="P11" s="131"/>
+      <c r="Q11" s="132"/>
       <c r="R11" s="65" t="s">
         <v>2532</v>
       </c>
-      <c r="S11" s="129"/>
+      <c r="S11" s="121"/>
     </row>
     <row r="12" spans="1:20" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
@@ -10159,15 +10033,15 @@
       <c r="L12" s="28"/>
       <c r="M12" s="28"/>
       <c r="N12" s="28"/>
-      <c r="O12" s="134" t="s">
+      <c r="O12" s="126" t="s">
         <v>2533</v>
       </c>
-      <c r="P12" s="187"/>
-      <c r="Q12" s="188"/>
-      <c r="R12" s="127" t="s">
+      <c r="P12" s="172"/>
+      <c r="Q12" s="173"/>
+      <c r="R12" s="119" t="s">
         <v>2534</v>
       </c>
-      <c r="S12" s="130"/>
+      <c r="S12" s="122"/>
     </row>
     <row r="13" spans="1:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
@@ -10175,12 +10049,12 @@
       <c r="O13" s="20" t="s">
         <v>2535</v>
       </c>
-      <c r="P13" s="189"/>
-      <c r="Q13" s="190"/>
+      <c r="P13" s="174"/>
+      <c r="Q13" s="175"/>
       <c r="R13" s="21" t="s">
         <v>2538</v>
       </c>
-      <c r="S13" s="131"/>
+      <c r="S13" s="123"/>
     </row>
     <row r="14" spans="1:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
@@ -10188,22 +10062,22 @@
       <c r="O14" s="20" t="s">
         <v>2536</v>
       </c>
-      <c r="P14" s="189"/>
-      <c r="Q14" s="190"/>
+      <c r="P14" s="174"/>
+      <c r="Q14" s="175"/>
       <c r="R14" s="21" t="s">
         <v>2539</v>
       </c>
-      <c r="S14" s="132"/>
+      <c r="S14" s="124"/>
     </row>
     <row r="15" spans="1:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="M15" s="27"/>
-      <c r="O15" s="191" t="s">
+      <c r="O15" s="176" t="s">
         <v>2537</v>
       </c>
-      <c r="P15" s="189"/>
-      <c r="Q15" s="190"/>
-      <c r="R15" s="103"/>
+      <c r="P15" s="174"/>
+      <c r="Q15" s="175"/>
+      <c r="R15" s="101"/>
       <c r="S15" s="37"/>
     </row>
     <row r="16" spans="1:20" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10223,13 +10097,13 @@
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
-      <c r="O16" s="180" t="s">
+      <c r="O16" s="165" t="s">
         <v>1884</v>
       </c>
-      <c r="P16" s="181"/>
-      <c r="Q16" s="181"/>
-      <c r="R16" s="181"/>
-      <c r="S16" s="182"/>
+      <c r="P16" s="166"/>
+      <c r="Q16" s="166"/>
+      <c r="R16" s="166"/>
+      <c r="S16" s="167"/>
     </row>
     <row r="17" spans="1:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
@@ -10272,17 +10146,17 @@
       <c r="N17" s="34" t="s">
         <v>1075</v>
       </c>
-      <c r="O17" s="92" t="s">
+      <c r="O17" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="183" t="s">
+      <c r="P17" s="168" t="s">
         <v>1078</v>
       </c>
-      <c r="Q17" s="184"/>
-      <c r="R17" s="79" t="s">
+      <c r="Q17" s="169"/>
+      <c r="R17" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="S17" s="192" t="s">
+      <c r="S17" s="177" t="s">
         <v>11</v>
       </c>
       <c r="U17" s="4" t="s">
@@ -10343,11 +10217,11 @@
         <f t="shared" ref="N18:N34" si="9">$S$7</f>
         <v>0</v>
       </c>
-      <c r="O18" s="93"/>
-      <c r="P18" s="137"/>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="126"/>
-      <c r="S18" s="94"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="178"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="179"/>
+      <c r="S18" s="93"/>
       <c r="U18" s="6" t="e">
         <f>IF(#REF!="No",1,0)</f>
         <v>#REF!</v>
@@ -10407,11 +10281,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O19" s="95"/>
-      <c r="P19" s="138"/>
-      <c r="Q19" s="109"/>
-      <c r="R19" s="125"/>
-      <c r="S19" s="96"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="178"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="179"/>
+      <c r="S19" s="93"/>
       <c r="U19" s="6" t="e">
         <f>IF(#REF!="No",1,0)</f>
         <v>#REF!</v>
@@ -10471,11 +10345,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O20" s="95"/>
-      <c r="P20" s="138"/>
-      <c r="Q20" s="109"/>
-      <c r="R20" s="125"/>
-      <c r="S20" s="96"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="178"/>
+      <c r="Q20" s="106"/>
+      <c r="R20" s="179"/>
+      <c r="S20" s="93"/>
       <c r="U20" s="6" t="e">
         <f>IF(#REF!="No",1,0)</f>
         <v>#REF!</v>
@@ -10535,11 +10409,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O21" s="95"/>
-      <c r="P21" s="138"/>
-      <c r="Q21" s="109"/>
-      <c r="R21" s="125"/>
-      <c r="S21" s="96"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="178"/>
+      <c r="Q21" s="106"/>
+      <c r="R21" s="179"/>
+      <c r="S21" s="93"/>
       <c r="U21" s="6" t="e">
         <f>IF(#REF!="No",1,0)</f>
         <v>#REF!</v>
@@ -10599,11 +10473,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O22" s="95"/>
-      <c r="P22" s="138"/>
-      <c r="Q22" s="109"/>
-      <c r="R22" s="125"/>
-      <c r="S22" s="96"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="178"/>
+      <c r="Q22" s="106"/>
+      <c r="R22" s="179"/>
+      <c r="S22" s="93"/>
       <c r="U22" s="6" t="e">
         <f>IF(#REF!="No",1,0)</f>
         <v>#REF!</v>
@@ -10663,17 +10537,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O23" s="95"/>
-      <c r="P23" s="138"/>
-      <c r="Q23" s="109"/>
-      <c r="R23" s="125"/>
-      <c r="S23" s="96"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="178"/>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="179"/>
+      <c r="S23" s="93"/>
       <c r="U23" s="6" t="e">
         <f>IF(#REF!="No",1,0)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="30" t="e">
         <f t="shared" si="10"/>
@@ -10727,11 +10601,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O24" s="136"/>
-      <c r="P24" s="139"/>
-      <c r="Q24" s="110"/>
-      <c r="R24" s="135"/>
-      <c r="S24" s="120"/>
+      <c r="O24" s="180"/>
+      <c r="P24" s="178"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="179"/>
+      <c r="S24" s="93"/>
       <c r="U24" s="6" t="e">
         <f>IF(#REF!="No",1,0)</f>
         <v>#REF!</v>
@@ -10791,14 +10665,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O25" s="93"/>
-      <c r="P25" s="176" t="str">
-        <f>IFERROR(IFERROR(VLOOKUP(O25,'Piezas y Partes'!A:B,2,FALSE),VLOOKUP(O25,Servicios!$A$1:$B$19,2,FALSE))," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q25" s="176"/>
-      <c r="R25" s="119"/>
-      <c r="S25" s="94"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="178"/>
+      <c r="Q25" s="181"/>
+      <c r="R25" s="179"/>
+      <c r="S25" s="93"/>
       <c r="U25" s="6">
         <f t="shared" ref="U25:U34" si="12">IF(S25="No",1,0)</f>
         <v>0</v>
@@ -10858,14 +10729,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O26" s="95"/>
-      <c r="P26" s="155" t="str">
-        <f>IFERROR(IFERROR(VLOOKUP(O26,'Piezas y Partes'!A:B,2,FALSE),VLOOKUP(O26,Servicios!$A$1:$B$19,2,FALSE))," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="96"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="178"/>
+      <c r="Q26" s="106"/>
+      <c r="R26" s="179"/>
+      <c r="S26" s="93"/>
       <c r="U26" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -10925,14 +10793,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O27" s="95"/>
-      <c r="P27" s="155" t="str">
-        <f>IFERROR(IFERROR(VLOOKUP(O27,'Piezas y Partes'!A:B,2,FALSE),VLOOKUP(O27,Servicios!$A$1:$B$19,2,FALSE))," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q27" s="155"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="96"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="178"/>
+      <c r="Q27" s="106"/>
+      <c r="R27" s="179"/>
+      <c r="S27" s="93"/>
       <c r="U27" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -10992,14 +10857,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O28" s="95"/>
-      <c r="P28" s="155" t="str">
-        <f>IFERROR(IFERROR(VLOOKUP(O28,'Piezas y Partes'!A:B,2,FALSE),VLOOKUP(O28,Servicios!$A$1:$B$19,2,FALSE))," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q28" s="155"/>
-      <c r="R28" s="78"/>
-      <c r="S28" s="96"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="178"/>
+      <c r="Q28" s="106"/>
+      <c r="R28" s="179"/>
+      <c r="S28" s="93"/>
       <c r="U28" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -11059,14 +10921,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O29" s="95"/>
-      <c r="P29" s="155" t="str">
-        <f>IFERROR(IFERROR(VLOOKUP(O29,'Piezas y Partes'!A:B,2,FALSE),VLOOKUP(O29,Servicios!$A$1:$B$19,2,FALSE))," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q29" s="155"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="96"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="178"/>
+      <c r="Q29" s="106"/>
+      <c r="R29" s="179"/>
+      <c r="S29" s="93"/>
       <c r="U29" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -11126,14 +10985,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O30" s="95"/>
-      <c r="P30" s="155" t="str">
-        <f>IFERROR(IFERROR(VLOOKUP(O30,'Piezas y Partes'!A:B,2,FALSE),VLOOKUP(O30,Servicios!$A$1:$B$19,2,FALSE))," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q30" s="155"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="96"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="178"/>
+      <c r="Q30" s="106"/>
+      <c r="R30" s="179"/>
+      <c r="S30" s="93"/>
       <c r="U30" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -11193,14 +11049,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O31" s="95"/>
-      <c r="P31" s="155" t="str">
-        <f>IFERROR(IFERROR(VLOOKUP(O31,'Piezas y Partes'!A:B,2,FALSE),VLOOKUP(O31,Servicios!$A$1:$B$19,2,FALSE))," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q31" s="155"/>
-      <c r="R31" s="78"/>
-      <c r="S31" s="96"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="178"/>
+      <c r="Q31" s="106"/>
+      <c r="R31" s="179"/>
+      <c r="S31" s="93"/>
       <c r="U31" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -11260,14 +11113,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O32" s="95"/>
-      <c r="P32" s="155" t="str">
-        <f>IFERROR(IFERROR(VLOOKUP(O32,'Piezas y Partes'!A:B,2,FALSE),VLOOKUP(O32,Servicios!$A$1:$B$19,2,FALSE))," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q32" s="155"/>
-      <c r="R32" s="78"/>
-      <c r="S32" s="96"/>
+      <c r="O32" s="94"/>
+      <c r="P32" s="178"/>
+      <c r="Q32" s="106"/>
+      <c r="R32" s="179"/>
+      <c r="S32" s="93"/>
       <c r="U32" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -11327,20 +11177,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O33" s="95"/>
-      <c r="P33" s="155" t="str">
-        <f>IFERROR(IFERROR(VLOOKUP(O33,'Piezas y Partes'!A:B,2,FALSE),VLOOKUP(O33,Servicios!$A$1:$B$19,2,FALSE))," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q33" s="155"/>
-      <c r="R33" s="78"/>
-      <c r="S33" s="96"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="178"/>
+      <c r="Q33" s="106"/>
+      <c r="R33" s="179"/>
+      <c r="S33" s="93"/>
       <c r="U33" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="30" t="e">
         <f t="shared" si="10"/>
@@ -11394,14 +11241,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O34" s="95"/>
-      <c r="P34" s="155" t="str">
-        <f>IFERROR(IFERROR(VLOOKUP(O34,'Piezas y Partes'!A:B,2,FALSE),VLOOKUP(O34,Servicios!$A$1:$B$19,2,FALSE))," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q34" s="155"/>
-      <c r="R34" s="78"/>
-      <c r="S34" s="104"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="178"/>
+      <c r="Q34" s="106"/>
+      <c r="R34" s="179"/>
+      <c r="S34" s="93"/>
       <c r="U34" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -11409,294 +11253,294 @@
     </row>
     <row r="35" spans="1:21" ht="21" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="177" t="s">
+      <c r="B35" s="83"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="86"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="162" t="s">
         <v>2297</v>
       </c>
-      <c r="P35" s="178"/>
-      <c r="Q35" s="178"/>
-      <c r="R35" s="178"/>
-      <c r="S35" s="179"/>
+      <c r="P35" s="163"/>
+      <c r="Q35" s="163"/>
+      <c r="R35" s="163"/>
+      <c r="S35" s="164"/>
       <c r="U35" s="27"/>
     </row>
     <row r="36" spans="1:21" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="88"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="167" t="s">
+      <c r="B36" s="83"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="86"/>
+      <c r="N36" s="83"/>
+      <c r="O36" s="153" t="s">
         <v>2540</v>
       </c>
-      <c r="P36" s="165"/>
-      <c r="Q36" s="165" t="s">
+      <c r="P36" s="151"/>
+      <c r="Q36" s="151" t="s">
         <v>2541</v>
       </c>
-      <c r="R36" s="165"/>
-      <c r="S36" s="166"/>
+      <c r="R36" s="151"/>
+      <c r="S36" s="152"/>
       <c r="T36" s="27"/>
     </row>
     <row r="37" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="88"/>
-      <c r="M37" s="87"/>
-      <c r="N37" s="84"/>
-      <c r="O37" s="121"/>
-      <c r="P37" s="89"/>
-      <c r="Q37" s="124"/>
-      <c r="R37" s="105"/>
-      <c r="S37" s="116"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="87"/>
+      <c r="M37" s="86"/>
+      <c r="N37" s="83"/>
+      <c r="O37" s="115"/>
+      <c r="P37" s="88"/>
+      <c r="Q37" s="118"/>
+      <c r="R37" s="102"/>
+      <c r="S37" s="112"/>
       <c r="T37" s="27"/>
     </row>
     <row r="38" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="88"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="84"/>
-      <c r="O38" s="97"/>
-      <c r="P38" s="89"/>
-      <c r="Q38" s="89"/>
-      <c r="R38" s="106"/>
-      <c r="S38" s="117"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="87"/>
+      <c r="M38" s="86"/>
+      <c r="N38" s="83"/>
+      <c r="O38" s="95"/>
+      <c r="P38" s="88"/>
+      <c r="Q38" s="88"/>
+      <c r="R38" s="103"/>
+      <c r="S38" s="113"/>
       <c r="T38" s="27"/>
     </row>
     <row r="39" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
-      <c r="B39" s="84"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="88"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="84"/>
-      <c r="O39" s="97"/>
-      <c r="P39" s="89"/>
-      <c r="Q39" s="89"/>
-      <c r="R39" s="106"/>
-      <c r="S39" s="117"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="86"/>
+      <c r="L39" s="87"/>
+      <c r="M39" s="86"/>
+      <c r="N39" s="83"/>
+      <c r="O39" s="95"/>
+      <c r="P39" s="88"/>
+      <c r="Q39" s="88"/>
+      <c r="R39" s="103"/>
+      <c r="S39" s="113"/>
       <c r="T39" s="27"/>
     </row>
     <row r="40" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="88"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="84"/>
-      <c r="O40" s="97"/>
-      <c r="P40" s="89"/>
-      <c r="Q40" s="89"/>
-      <c r="R40" s="106"/>
-      <c r="S40" s="117"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="86"/>
+      <c r="N40" s="83"/>
+      <c r="O40" s="95"/>
+      <c r="P40" s="88"/>
+      <c r="Q40" s="88"/>
+      <c r="R40" s="103"/>
+      <c r="S40" s="113"/>
       <c r="T40" s="27"/>
     </row>
     <row r="41" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="88"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="84"/>
-      <c r="O41" s="97"/>
-      <c r="P41" s="89"/>
-      <c r="Q41" s="89"/>
-      <c r="R41" s="106"/>
-      <c r="S41" s="117"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="87"/>
+      <c r="M41" s="86"/>
+      <c r="N41" s="83"/>
+      <c r="O41" s="95"/>
+      <c r="P41" s="88"/>
+      <c r="Q41" s="88"/>
+      <c r="R41" s="103"/>
+      <c r="S41" s="113"/>
       <c r="T41" s="27"/>
     </row>
     <row r="42" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
-      <c r="B42" s="84"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="84"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="87"/>
+      <c r="M42" s="86"/>
+      <c r="N42" s="83"/>
       <c r="O42" s="10"/>
-      <c r="P42" s="111"/>
-      <c r="Q42" s="111"/>
-      <c r="R42" s="111"/>
-      <c r="S42" s="112"/>
+      <c r="P42" s="107"/>
+      <c r="Q42" s="107"/>
+      <c r="R42" s="107"/>
+      <c r="S42" s="108"/>
       <c r="T42" s="27"/>
     </row>
     <row r="43" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="87"/>
-      <c r="N43" s="84"/>
-      <c r="O43" s="97"/>
-      <c r="P43" s="89"/>
-      <c r="Q43" s="89"/>
-      <c r="R43" s="106"/>
-      <c r="S43" s="117"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="87"/>
+      <c r="M43" s="86"/>
+      <c r="N43" s="83"/>
+      <c r="O43" s="95"/>
+      <c r="P43" s="88"/>
+      <c r="Q43" s="88"/>
+      <c r="R43" s="103"/>
+      <c r="S43" s="113"/>
       <c r="T43" s="27"/>
     </row>
     <row r="44" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="86"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="87"/>
-      <c r="L44" s="88"/>
-      <c r="M44" s="87"/>
-      <c r="N44" s="84"/>
-      <c r="O44" s="97"/>
-      <c r="P44" s="89"/>
-      <c r="Q44" s="89"/>
-      <c r="R44" s="106"/>
-      <c r="S44" s="117"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="86"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="86"/>
+      <c r="N44" s="83"/>
+      <c r="O44" s="95"/>
+      <c r="P44" s="88"/>
+      <c r="Q44" s="88"/>
+      <c r="R44" s="103"/>
+      <c r="S44" s="113"/>
       <c r="T44" s="27"/>
     </row>
     <row r="45" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
-      <c r="B45" s="84"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="87"/>
-      <c r="N45" s="84"/>
-      <c r="O45" s="97"/>
-      <c r="P45" s="89"/>
-      <c r="Q45" s="89"/>
-      <c r="R45" s="106"/>
-      <c r="S45" s="117"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="86"/>
+      <c r="L45" s="87"/>
+      <c r="M45" s="86"/>
+      <c r="N45" s="83"/>
+      <c r="O45" s="95"/>
+      <c r="P45" s="88"/>
+      <c r="Q45" s="88"/>
+      <c r="R45" s="103"/>
+      <c r="S45" s="113"/>
       <c r="T45" s="27"/>
     </row>
     <row r="46" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
-      <c r="B46" s="84"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="86"/>
-      <c r="K46" s="87"/>
-      <c r="L46" s="88"/>
-      <c r="M46" s="87"/>
-      <c r="N46" s="84"/>
-      <c r="O46" s="97"/>
-      <c r="P46" s="89"/>
-      <c r="Q46" s="89"/>
-      <c r="R46" s="106"/>
-      <c r="S46" s="117"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="86"/>
+      <c r="L46" s="87"/>
+      <c r="M46" s="86"/>
+      <c r="N46" s="83"/>
+      <c r="O46" s="95"/>
+      <c r="P46" s="88"/>
+      <c r="Q46" s="88"/>
+      <c r="R46" s="103"/>
+      <c r="S46" s="113"/>
       <c r="T46" s="27"/>
     </row>
     <row r="47" spans="1:21" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="86"/>
-      <c r="K47" s="87"/>
-      <c r="L47" s="88"/>
-      <c r="M47" s="87"/>
-      <c r="N47" s="84"/>
-      <c r="O47" s="122"/>
-      <c r="P47" s="123"/>
-      <c r="Q47" s="107"/>
-      <c r="R47" s="107"/>
-      <c r="S47" s="118"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="85"/>
+      <c r="K47" s="86"/>
+      <c r="L47" s="87"/>
+      <c r="M47" s="86"/>
+      <c r="N47" s="83"/>
+      <c r="O47" s="116"/>
+      <c r="P47" s="117"/>
+      <c r="Q47" s="104"/>
+      <c r="R47" s="104"/>
+      <c r="S47" s="114"/>
       <c r="T47" s="27"/>
     </row>
     <row r="48" spans="1:21" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -11714,22 +11558,22 @@
       <c r="L48" s="28"/>
       <c r="M48" s="28"/>
       <c r="N48" s="28"/>
-      <c r="O48" s="156" t="s">
+      <c r="O48" s="142" t="s">
         <v>1083</v>
       </c>
-      <c r="P48" s="157"/>
-      <c r="Q48" s="157"/>
-      <c r="R48" s="157"/>
-      <c r="S48" s="158"/>
+      <c r="P48" s="143"/>
+      <c r="Q48" s="143"/>
+      <c r="R48" s="143"/>
+      <c r="S48" s="144"/>
     </row>
     <row r="49" spans="1:19" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="M49" s="27"/>
-      <c r="O49" s="173"/>
-      <c r="P49" s="174"/>
-      <c r="Q49" s="174"/>
-      <c r="R49" s="174"/>
-      <c r="S49" s="175"/>
+      <c r="O49" s="159"/>
+      <c r="P49" s="160"/>
+      <c r="Q49" s="160"/>
+      <c r="R49" s="160"/>
+      <c r="S49" s="161"/>
     </row>
     <row r="50" spans="1:19" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="10"/>
@@ -11746,13 +11590,13 @@
       <c r="L50" s="28"/>
       <c r="M50" s="28"/>
       <c r="N50" s="28"/>
-      <c r="O50" s="156" t="s">
+      <c r="O50" s="142" t="s">
         <v>2542</v>
       </c>
-      <c r="P50" s="157"/>
-      <c r="Q50" s="157"/>
-      <c r="R50" s="157"/>
-      <c r="S50" s="158"/>
+      <c r="P50" s="143"/>
+      <c r="Q50" s="143"/>
+      <c r="R50" s="143"/>
+      <c r="S50" s="144"/>
     </row>
     <row r="51" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
@@ -11760,8 +11604,8 @@
       <c r="O51" s="20" t="s">
         <v>1093</v>
       </c>
-      <c r="P51" s="162"/>
-      <c r="Q51" s="163"/>
+      <c r="P51" s="148"/>
+      <c r="Q51" s="149"/>
       <c r="R51" s="21" t="s">
         <v>2528</v>
       </c>
@@ -11773,8 +11617,8 @@
       <c r="O52" s="20" t="s">
         <v>1094</v>
       </c>
-      <c r="P52" s="162"/>
-      <c r="Q52" s="163"/>
+      <c r="P52" s="148"/>
+      <c r="Q52" s="149"/>
       <c r="R52" s="21" t="s">
         <v>2529</v>
       </c>
@@ -11786,8 +11630,8 @@
       <c r="O53" s="20" t="s">
         <v>1095</v>
       </c>
-      <c r="P53" s="82"/>
-      <c r="Q53" s="83"/>
+      <c r="P53" s="81"/>
+      <c r="Q53" s="82"/>
       <c r="R53" s="21" t="s">
         <v>2530</v>
       </c>
@@ -11799,8 +11643,8 @@
       <c r="O54" s="20" t="s">
         <v>2291</v>
       </c>
-      <c r="P54" s="82"/>
-      <c r="Q54" s="83"/>
+      <c r="P54" s="81"/>
+      <c r="Q54" s="82"/>
       <c r="R54" s="21" t="s">
         <v>2294</v>
       </c>
@@ -11812,8 +11656,8 @@
       <c r="O55" s="20" t="s">
         <v>2292</v>
       </c>
-      <c r="P55" s="82"/>
-      <c r="Q55" s="83"/>
+      <c r="P55" s="81"/>
+      <c r="Q55" s="82"/>
       <c r="R55" s="21" t="s">
         <v>2295</v>
       </c>
@@ -11825,8 +11669,8 @@
       <c r="O56" s="20" t="s">
         <v>2293</v>
       </c>
-      <c r="P56" s="162"/>
-      <c r="Q56" s="163"/>
+      <c r="P56" s="148"/>
+      <c r="Q56" s="149"/>
       <c r="R56" s="21" t="s">
         <v>2296</v>
       </c>
@@ -11847,25 +11691,25 @@
       <c r="L57" s="28"/>
       <c r="M57" s="28"/>
       <c r="N57" s="28"/>
-      <c r="O57" s="159" t="s">
+      <c r="O57" s="145" t="s">
         <v>1071</v>
       </c>
-      <c r="P57" s="160"/>
-      <c r="Q57" s="160"/>
-      <c r="R57" s="160"/>
-      <c r="S57" s="161"/>
+      <c r="P57" s="146"/>
+      <c r="Q57" s="146"/>
+      <c r="R57" s="146"/>
+      <c r="S57" s="147"/>
     </row>
     <row r="58" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="O58" s="20" t="s">
         <v>1088</v>
       </c>
-      <c r="P58" s="152"/>
-      <c r="Q58" s="164"/>
+      <c r="P58" s="139"/>
+      <c r="Q58" s="150"/>
       <c r="R58" s="21" t="s">
         <v>2290</v>
       </c>
-      <c r="S58" s="98"/>
+      <c r="S58" s="96"/>
     </row>
     <row r="59" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
@@ -11873,10 +11717,10 @@
       <c r="O59" s="20" t="s">
         <v>1089</v>
       </c>
-      <c r="P59" s="170"/>
-      <c r="Q59" s="171"/>
-      <c r="R59" s="171"/>
-      <c r="S59" s="172"/>
+      <c r="P59" s="156"/>
+      <c r="Q59" s="157"/>
+      <c r="R59" s="157"/>
+      <c r="S59" s="158"/>
     </row>
     <row r="60" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
@@ -11884,10 +11728,10 @@
       <c r="O60" s="20" t="s">
         <v>1090</v>
       </c>
-      <c r="P60" s="152"/>
-      <c r="Q60" s="153"/>
-      <c r="R60" s="153"/>
-      <c r="S60" s="154"/>
+      <c r="P60" s="139"/>
+      <c r="Q60" s="140"/>
+      <c r="R60" s="140"/>
+      <c r="S60" s="141"/>
     </row>
     <row r="61" spans="1:19" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
@@ -11895,10 +11739,10 @@
       <c r="O61" s="9" t="s">
         <v>1091</v>
       </c>
-      <c r="P61" s="113"/>
-      <c r="Q61" s="114"/>
-      <c r="R61" s="114"/>
-      <c r="S61" s="115"/>
+      <c r="P61" s="109"/>
+      <c r="Q61" s="110"/>
+      <c r="R61" s="110"/>
+      <c r="S61" s="111"/>
     </row>
     <row r="62" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
@@ -11906,10 +11750,10 @@
       <c r="O62" s="20" t="s">
         <v>1092</v>
       </c>
-      <c r="P62" s="152"/>
-      <c r="Q62" s="153"/>
-      <c r="R62" s="153"/>
-      <c r="S62" s="154"/>
+      <c r="P62" s="139"/>
+      <c r="Q62" s="140"/>
+      <c r="R62" s="140"/>
+      <c r="S62" s="141"/>
     </row>
     <row r="63" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
@@ -11918,38 +11762,38 @@
     </row>
     <row r="64" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
-      <c r="O64" s="146" t="s">
+      <c r="O64" s="133" t="s">
         <v>1081</v>
       </c>
-      <c r="P64" s="147"/>
-      <c r="Q64" s="147"/>
-      <c r="R64" s="147"/>
-      <c r="S64" s="148"/>
+      <c r="P64" s="134"/>
+      <c r="Q64" s="134"/>
+      <c r="R64" s="134"/>
+      <c r="S64" s="135"/>
     </row>
     <row r="65" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
-      <c r="O65" s="146" t="s">
+      <c r="O65" s="133" t="s">
         <v>1080</v>
       </c>
-      <c r="P65" s="147"/>
-      <c r="Q65" s="147"/>
-      <c r="R65" s="147"/>
-      <c r="S65" s="148"/>
+      <c r="P65" s="134"/>
+      <c r="Q65" s="134"/>
+      <c r="R65" s="134"/>
+      <c r="S65" s="135"/>
     </row>
     <row r="66" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8"/>
-      <c r="O66" s="149" t="s">
+      <c r="O66" s="136" t="s">
         <v>1082</v>
       </c>
-      <c r="P66" s="150"/>
-      <c r="Q66" s="150"/>
-      <c r="R66" s="150"/>
-      <c r="S66" s="151"/>
+      <c r="P66" s="137"/>
+      <c r="Q66" s="137"/>
+      <c r="R66" s="137"/>
+      <c r="S66" s="138"/>
     </row>
     <row r="67" spans="1:19" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="37">
+  <mergeCells count="27">
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="P13:Q13"/>
@@ -11960,14 +11804,6 @@
     <mergeCell ref="P59:S59"/>
     <mergeCell ref="O48:S48"/>
     <mergeCell ref="O49:S49"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P28:Q28"/>
     <mergeCell ref="O35:S35"/>
     <mergeCell ref="O16:S16"/>
     <mergeCell ref="P17:Q17"/>
@@ -11976,13 +11812,11 @@
     <mergeCell ref="O65:S65"/>
     <mergeCell ref="O66:S66"/>
     <mergeCell ref="P62:S62"/>
-    <mergeCell ref="P29:Q29"/>
     <mergeCell ref="O50:S50"/>
     <mergeCell ref="O57:S57"/>
     <mergeCell ref="P51:Q51"/>
     <mergeCell ref="P52:Q52"/>
     <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="P30:Q30"/>
     <mergeCell ref="P58:Q58"/>
     <mergeCell ref="Q36:S36"/>
     <mergeCell ref="O36:P36"/>
@@ -11997,18 +11831,12 @@
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{81E892B4-1CDE-43F4-AC99-13F0008747DD}">
           <x14:formula1>
             <xm:f>'Lista Servicio'!$A$2:$A$10</xm:f>
           </x14:formula1>
           <xm:sqref>R7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1B7C8B4C-9D1C-434C-A62E-75392F44903A}">
-          <x14:formula1>
-            <xm:f>'Lista Servicio'!$C$2:$C$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>S25:S34</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DC7CBED5-39E3-44C4-8D28-3D508CF64D30}">
           <x14:formula1>
@@ -15184,7 +15012,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="97" t="s">
         <v>2462</v>
       </c>
       <c r="B8" s="47" t="s">
@@ -21136,7 +20964,7 @@
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="99" t="s">
+      <c r="A243" s="97" t="s">
         <v>2479</v>
       </c>
       <c r="B243" s="47" t="s">
@@ -21498,7 +21326,7 @@
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="99" t="s">
+      <c r="A257" s="97" t="s">
         <v>2480</v>
       </c>
       <c r="B257" s="47" t="s">
@@ -21514,7 +21342,7 @@
       <c r="F257" s="60" t="s">
         <v>2300</v>
       </c>
-      <c r="G257" s="99" t="s">
+      <c r="G257" s="97" t="s">
         <v>30</v>
       </c>
       <c r="H257" s="48">
@@ -21800,7 +21628,7 @@
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" s="99" t="s">
+      <c r="A269" s="97" t="s">
         <v>2482</v>
       </c>
       <c r="B269" s="47" t="s">
@@ -21816,7 +21644,7 @@
       <c r="F269" s="48" t="s">
         <v>2299</v>
       </c>
-      <c r="G269" s="100" t="s">
+      <c r="G269" s="98" t="s">
         <v>318</v>
       </c>
       <c r="H269" s="63">
@@ -21824,7 +21652,7 @@
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="99" t="s">
+      <c r="A270" s="97" t="s">
         <v>2483</v>
       </c>
       <c r="B270" s="47" t="s">
@@ -21840,7 +21668,7 @@
       <c r="F270" s="60" t="s">
         <v>2299</v>
       </c>
-      <c r="G270" s="100" t="s">
+      <c r="G270" s="98" t="s">
         <v>31</v>
       </c>
       <c r="H270" s="63">
@@ -21848,7 +21676,7 @@
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="99" t="s">
+      <c r="A271" s="97" t="s">
         <v>2484</v>
       </c>
       <c r="B271" s="47" t="s">
@@ -21864,7 +21692,7 @@
       <c r="F271" s="60" t="s">
         <v>2299</v>
       </c>
-      <c r="G271" s="99" t="s">
+      <c r="G271" s="97" t="s">
         <v>31</v>
       </c>
       <c r="H271" s="48">
@@ -24626,7 +24454,7 @@
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A381" s="99" t="s">
+      <c r="A381" s="97" t="s">
         <v>2488</v>
       </c>
       <c r="B381" s="47" t="s">
@@ -24642,7 +24470,7 @@
       <c r="F381" s="60" t="s">
         <v>2299</v>
       </c>
-      <c r="G381" s="99" t="s">
+      <c r="G381" s="97" t="s">
         <v>53</v>
       </c>
       <c r="H381" s="48">
@@ -29858,7 +29686,7 @@
       </c>
     </row>
     <row r="586" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A586" s="102" t="s">
+      <c r="A586" s="100" t="s">
         <v>2515</v>
       </c>
       <c r="B586" s="59" t="s">
@@ -29876,7 +29704,7 @@
       <c r="F586" s="71" t="s">
         <v>2299</v>
       </c>
-      <c r="G586" s="101" t="s">
+      <c r="G586" s="99" t="s">
         <v>318</v>
       </c>
       <c r="H586" s="48">
@@ -29884,7 +29712,7 @@
       </c>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A587" s="102" t="s">
+      <c r="A587" s="100" t="s">
         <v>2516</v>
       </c>
       <c r="B587" s="59" t="s">
@@ -29902,7 +29730,7 @@
       <c r="F587" s="71" t="s">
         <v>2299</v>
       </c>
-      <c r="G587" s="101" t="s">
+      <c r="G587" s="99" t="s">
         <v>318</v>
       </c>
       <c r="H587" s="48">
@@ -33821,190 +33649,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="80" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="80" t="s">
+      <c r="D1" s="80"/>
+      <c r="E1" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="81"/>
-      <c r="G1" s="80" t="s">
+      <c r="F1" s="80"/>
+      <c r="G1" s="79" t="s">
         <v>1098</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="80" t="s">
         <v>2519</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80" t="s">
         <v>642</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81" t="s">
+      <c r="D2" s="80"/>
+      <c r="E2" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81" t="s">
+      <c r="F2" s="80"/>
+      <c r="G2" s="80" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="80" t="s">
         <v>2243</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81" t="s">
+      <c r="D3" s="80"/>
+      <c r="E3" s="80" t="s">
         <v>2244</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81" t="s">
+      <c r="F3" s="80"/>
+      <c r="G3" s="80" t="s">
         <v>2249</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="80" t="s">
         <v>1886</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80" t="s">
         <v>232</v>
       </c>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81" t="s">
+      <c r="F4" s="80"/>
+      <c r="G4" s="80" t="s">
         <v>1099</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81" t="s">
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81" t="s">
+      <c r="F5" s="80"/>
+      <c r="G5" s="80" t="s">
         <v>2520</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="80" t="s">
         <v>2525</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81" t="s">
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80" t="s">
         <v>318</v>
       </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81" t="s">
+      <c r="F6" s="80"/>
+      <c r="G6" s="80" t="s">
         <v>2523</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81" t="s">
+      <c r="A7" s="80"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81" t="s">
+      <c r="F7" s="80"/>
+      <c r="G7" s="80" t="s">
         <v>2524</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81" t="s">
+      <c r="A8" s="80"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80" t="s">
         <v>1096</v>
       </c>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81" t="s">
+      <c r="F8" s="80"/>
+      <c r="G8" s="80" t="s">
         <v>2526</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81" t="s">
+      <c r="A9" s="80"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80" t="s">
         <v>2245</v>
       </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81" t="s">
+      <c r="F9" s="80"/>
+      <c r="G9" s="80" t="s">
         <v>2527</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81" t="s">
+      <c r="A10" s="80"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80" t="s">
         <v>2246</v>
       </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81" t="s">
+      <c r="A11" s="80"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80" t="s">
         <v>2247</v>
       </c>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81" t="s">
+      <c r="A12" s="80"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80" t="s">
         <v>2248</v>
       </c>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81" t="s">
+      <c r="A13" s="80"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80" t="s">
         <v>301</v>
       </c>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E14" s="81"/>
-      <c r="G14" s="81"/>
+      <c r="E14" s="80"/>
+      <c r="G14" s="80"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E15" s="81"/>
+      <c r="E15" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
